--- a/projet/Statistique/data/données nettoyées/GS 450-10.xlsx
+++ b/projet/Statistique/data/données nettoyées/GS 450-10.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Conforme" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Conforme_with_outliers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Conforme_without_outliers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intervale_de_Confiance" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18099,4 +18100,264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Intervalle de Confiance</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Impureté [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Purete ONO [%]</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>C [%]</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Si [%]</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Mn [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Cu [%]</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cr [%]</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>P [%]</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Ni [%]</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Mo [%]</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Sn [%]</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Sb [%]</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Al [%]</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>S [%]</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Mg [%]</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Pb [%]</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Ti [%]</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>As [%]</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Bi [%]</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>V [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Borne_sup</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.182986184655274</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1533711129173796</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.403112025224653</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.664145217133924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2193566235110144</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05353035249791721</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.04205619505063601</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02869483288593226</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01357405382215754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.002397546035624112</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01526156808896014</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.003935385111865173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01047293888863761</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.009469657660463676</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03945373009259095</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.009976323230160088</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.002400865702189973</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.00110995572513579</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Borne_inf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.124201315344726</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1447538870826204</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.342106724775348</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.613417282866076</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2073308764889856</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04853214750208279</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03913130494936398</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02633641711406773</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01236344617784246</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001852453964375889</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01430093191103986</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.003408364888134827</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.009370811111362395</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.006717842339536324</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03592126990740905</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.009429926769839909</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.001661634297810027</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0009212942748642099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/projet/Statistique/data/données nettoyées/GS 450-10.xlsx
+++ b/projet/Statistique/data/données nettoyées/GS 450-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Non Conforme" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Conforme" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Conforme_with_outliers" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Conforme_without_outliers" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Intervale_de_Confiance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non Conforme" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conforme" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conforme_with_outliers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conforme_without_outliers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intervale_de_Confiance" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/projet/Statistique/data/données nettoyées/GS 450-10.xlsx
+++ b/projet/Statistique/data/données nettoyées/GS 450-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non Conforme" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conforme" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conforme_with_outliers" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conforme_without_outliers" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intervale_de_Confiance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Non Conforme" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Conforme" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Conforme_with_outliers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Conforme_without_outliers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intervale_de_Confiance" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18226,135 +18226,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Borne_sup</t>
+          <t>Borne_inf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.182986184655274</v>
+        <v>1.124201315344726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1533711129173796</v>
+        <v>0.1447538870826204</v>
       </c>
       <c r="D2" t="n">
-        <v>3.403112025224653</v>
+        <v>3.342106724775348</v>
       </c>
       <c r="E2" t="n">
-        <v>2.664145217133924</v>
+        <v>2.613417282866076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2193566235110144</v>
+        <v>0.2073308764889856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05353035249791721</v>
+        <v>0.04853214750208279</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04205619505063601</v>
+        <v>0.03913130494936398</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02869483288593226</v>
+        <v>0.02633641711406773</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01357405382215754</v>
+        <v>0.01236344617784246</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002397546035624112</v>
+        <v>0.001852453964375889</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01526156808896014</v>
+        <v>0.01430093191103986</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003935385111865173</v>
+        <v>0.003408364888134827</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01047293888863761</v>
+        <v>0.009370811111362395</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009469657660463676</v>
+        <v>0.006717842339536324</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03945373009259095</v>
+        <v>0.03592126990740905</v>
       </c>
       <c r="Q2" t="n">
         <v>0.002</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009976323230160088</v>
+        <v>0.009429926769839909</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002400865702189973</v>
+        <v>0.001661634297810027</v>
       </c>
       <c r="T2" t="n">
         <v>0.001</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00110995572513579</v>
+        <v>0.0009212942748642099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Borne_inf</t>
+          <t>Borne_sup</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.124201315344726</v>
+        <v>1.182986184655274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447538870826204</v>
+        <v>0.1533711129173796</v>
       </c>
       <c r="D3" t="n">
-        <v>3.342106724775348</v>
+        <v>3.403112025224653</v>
       </c>
       <c r="E3" t="n">
-        <v>2.613417282866076</v>
+        <v>2.664145217133924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2073308764889856</v>
+        <v>0.2193566235110144</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04853214750208279</v>
+        <v>0.05353035249791721</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03913130494936398</v>
+        <v>0.04205619505063601</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02633641711406773</v>
+        <v>0.02869483288593226</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01236344617784246</v>
+        <v>0.01357405382215754</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001852453964375889</v>
+        <v>0.002397546035624112</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01430093191103986</v>
+        <v>0.01526156808896014</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003408364888134827</v>
+        <v>0.003935385111865173</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009370811111362395</v>
+        <v>0.01047293888863761</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006717842339536324</v>
+        <v>0.009469657660463676</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03592126990740905</v>
+        <v>0.03945373009259095</v>
       </c>
       <c r="Q3" t="n">
         <v>0.002</v>
       </c>
       <c r="R3" t="n">
-        <v>0.009429926769839909</v>
+        <v>0.009976323230160088</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001661634297810027</v>
+        <v>0.002400865702189973</v>
       </c>
       <c r="T3" t="n">
         <v>0.001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0009212942748642099</v>
+        <v>0.00110995572513579</v>
       </c>
     </row>
   </sheetData>
